--- a/content/burndown.xlsx
+++ b/content/burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecad7fb2fd623e16/School/Appstate/2021Spring/Capstone/AppStateCapstone/content/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\AppStateCapstone\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{2589019F-1D43-4464-B0F8-762BF3489693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B5F5C7D5-91FC-E647-9794-7C64D6DE48AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C387D8F-85E6-4BA0-A865-B90D0BFDF34D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="27380" windowHeight="17500" xr2:uid="{58AE2564-334E-0F42-91A8-57075DA461D6}"/>
+    <workbookView xWindow="8730" yWindow="2355" windowWidth="29220" windowHeight="17640" xr2:uid="{58AE2564-334E-0F42-91A8-57075DA461D6}"/>
   </bookViews>
   <sheets>
     <sheet name="EffortRawData" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{F54DA456-B0A3-C34F-B4EB-10A01303D66C}">
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{F54DA456-B0A3-C34F-B4EB-10A01303D66C}">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{808B3ECB-8534-8340-B4A5-7738962116A3}">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{808B3ECB-8534-8340-B4A5-7738962116A3}">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{F65F7D0D-B627-2142-AF9F-B9EAB8D18538}">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{F65F7D0D-B627-2142-AF9F-B9EAB8D18538}">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{F8C402E0-4F70-FC48-80B3-01096083B0CC}">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{F8C402E0-4F70-FC48-80B3-01096083B0CC}">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{1A1B4E01-05C7-BC4E-AA18-AAB726C802E1}">
+    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{1A1B4E01-05C7-BC4E-AA18-AAB726C802E1}">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{87FE40A0-93E0-8749-A5E3-6AAA55399195}">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{87FE40A0-93E0-8749-A5E3-6AAA55399195}">
       <text>
         <r>
           <rPr>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Project Name:</t>
   </si>
@@ -375,12 +375,6 @@
     <t>Admin Card Update Page Feature (Display update)</t>
   </si>
   <si>
-    <t>Login Page Bug (Bad Creds)</t>
-  </si>
-  <si>
-    <t>Login Page Bug (Layout)</t>
-  </si>
-  <si>
     <t>#2</t>
   </si>
   <si>
@@ -390,12 +384,6 @@
     <t>#4</t>
   </si>
   <si>
-    <t>#6</t>
-  </si>
-  <si>
-    <t>#7</t>
-  </si>
-  <si>
     <t>#9</t>
   </si>
   <si>
@@ -426,10 +414,19 @@
     <t>Lifecounter (will be split up)</t>
   </si>
   <si>
-    <t>Learn PHP</t>
-  </si>
-  <si>
     <t>Discussed switching to django</t>
+  </si>
+  <si>
+    <t>Setup local django env + 4 apps</t>
+  </si>
+  <si>
+    <t>Setup MySQL db instance</t>
+  </si>
+  <si>
+    <t>Create Login Page (django)</t>
+  </si>
+  <si>
+    <t>Learn django</t>
   </si>
 </sst>
 </file>
@@ -798,43 +795,43 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>127</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.5</c:v>
+                  <c:v>94.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.5</c:v>
+                  <c:v>66.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.5</c:v>
+                  <c:v>52.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.5</c:v>
+                  <c:v>39.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.5</c:v>
+                  <c:v>25.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55.5</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,43 +924,43 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>127</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.5</c:v>
+                  <c:v>94.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,40 +1053,40 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>127</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.41666666666667</c:v>
+                  <c:v>91.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.83333333333334</c:v>
+                  <c:v>83.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.250000000000014</c:v>
+                  <c:v>75.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.666666666666686</c:v>
+                  <c:v>66.666666666666686</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.083333333333357</c:v>
+                  <c:v>58.33333333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.500000000000021</c:v>
+                  <c:v>50.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.916666666666686</c:v>
+                  <c:v>41.666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.33333333333335</c:v>
+                  <c:v>33.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.750000000000014</c:v>
+                  <c:v>25.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.166666666666679</c:v>
+                  <c:v>16.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.583333333333345</c:v>
+                  <c:v>8.3333333333333375</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2202,22 +2199,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE15858-1152-CB4E-BE11-BC0471701F8D}">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="1" max="1" width="45.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2234,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2248,7 +2245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2256,7 +2253,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2264,77 +2261,77 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10">
-        <f>COUNTA(A7:A84)</f>
-        <v>17</v>
+        <f>COUNTA(A7:A81)</f>
+        <v>18</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="10">
-        <f>SUM(D7:D84)</f>
-        <v>127</v>
+        <f>SUM(D7:D81)</f>
+        <v>100</v>
       </c>
       <c r="E5" s="11">
-        <f>SUM(E7:E84)</f>
-        <v>22</v>
+        <f>SUM(E7:E81)</f>
+        <v>27</v>
       </c>
       <c r="F5" s="10">
-        <f>D5-SUM(F7:F84)</f>
-        <v>121.5</v>
+        <f>D5-SUM(F7:F81)</f>
+        <v>94.5</v>
       </c>
       <c r="G5" s="10">
-        <f>F5-SUM(G7:G84)</f>
-        <v>108</v>
+        <f>F5-SUM(G7:G81)</f>
+        <v>81</v>
       </c>
       <c r="H5" s="10">
-        <f>G5-SUM(H7:H84)</f>
-        <v>105</v>
+        <f>G5-SUM(H7:H81)</f>
+        <v>73</v>
       </c>
       <c r="I5" s="10">
-        <f>H5-SUM(I7:I84)</f>
-        <v>105</v>
+        <f>H5-SUM(I7:I81)</f>
+        <v>73</v>
       </c>
       <c r="J5" s="10">
-        <f>I5-SUM(J7:J84)</f>
-        <v>105</v>
+        <f>I5-SUM(J7:J81)</f>
+        <v>73</v>
       </c>
       <c r="K5" s="10">
-        <f>J5-SUM(K7:K84)</f>
-        <v>105</v>
+        <f>J5-SUM(K7:K81)</f>
+        <v>73</v>
       </c>
       <c r="L5" s="10">
-        <f>K5-SUM(L7:L84)</f>
-        <v>105</v>
+        <f>K5-SUM(L7:L81)</f>
+        <v>73</v>
       </c>
       <c r="M5" s="10">
-        <f>L5-SUM(M7:M84)</f>
-        <v>105</v>
+        <f>L5-SUM(M7:M81)</f>
+        <v>73</v>
       </c>
       <c r="N5" s="10">
-        <f>M5-SUM(N7:N84)</f>
-        <v>105</v>
+        <f>M5-SUM(N7:N81)</f>
+        <v>73</v>
       </c>
       <c r="O5" s="10">
-        <f>N5-SUM(O7:O84)</f>
-        <v>105</v>
+        <f>N5-SUM(O7:O81)</f>
+        <v>73</v>
       </c>
       <c r="P5" s="10">
-        <f>O5-SUM(P7:P84)</f>
-        <v>105</v>
+        <f>O5-SUM(P7:P81)</f>
+        <v>73</v>
       </c>
       <c r="Q5" s="10">
-        <f>P5-SUM(Q7:Q84)</f>
-        <v>105</v>
+        <f>P5-SUM(Q7:Q81)</f>
+        <v>73</v>
       </c>
       <c r="R5" s="10">
-        <f>Q5-SUM(R7:R84)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <f>Q5-SUM(R7:R81)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2390,112 +2387,91 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="23">
-        <v>44233</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="24">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44238</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6">
+        <f>SUM(F7:R7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44238</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="25">
-        <f t="shared" ref="E7:E13" si="0">SUM(F7:R7)</f>
+      <c r="E8" s="6">
+        <f>SUM(F8:R8)</f>
         <v>2</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-    </row>
-    <row r="8" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="23">
-        <v>44233</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="24">
-        <v>4</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="F8" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-    </row>
-    <row r="9" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="23">
-        <v>44233</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="24">
-        <v>7</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24">
-        <v>7</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44238</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <f>SUM(F9:R9)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
         <f>SUM(F10:R10)</f>
@@ -2514,29 +2490,16 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5.5</v>
-      </c>
+        <f>SUM(F11:R11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2548,26 +2511,28 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>44233</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E14" si="0">SUM(F12:R12)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2580,25 +2545,27 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>44233</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2610,21 +2577,21 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>44233</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" ref="E14:E65" si="1">SUM(F14:R14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="2"/>
@@ -2640,21 +2607,21 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>44233</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E15:E62" si="1">SUM(F15:R15)</f>
         <v>0</v>
       </c>
       <c r="F15" s="2"/>
@@ -2670,15 +2637,15 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>44233</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2">
         <v>10</v>
@@ -2700,18 +2667,18 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>44233</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="1"/>
@@ -2730,18 +2697,18 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
         <v>44233</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
@@ -2760,21 +2727,21 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>44233</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E19" s="6">
-        <f>SUM(F19:R19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19" s="2"/>
@@ -2790,21 +2757,19 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>44237</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6">
-        <f>SUM(F20:R20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F20" s="2"/>
@@ -2820,26 +2785,17 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1">
-        <v>44237</v>
-      </c>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>4</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2850,17 +2806,10 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44237</v>
-      </c>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>30</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2878,121 +2827,163 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="23" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23">
+        <v>44233</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="24">
+        <v>2</v>
+      </c>
+      <c r="E23" s="25">
+        <f>SUM(F23:R23)</f>
+        <v>2</v>
+      </c>
+      <c r="F23" s="24">
+        <v>2</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+    </row>
+    <row r="24" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="23">
+        <v>44233</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="25">
+        <f>SUM(F24:R24)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F24" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+    </row>
+    <row r="25" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="23">
+        <v>44233</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="24">
+        <v>7</v>
+      </c>
+      <c r="E25" s="25">
+        <f>SUM(F25:R25)</f>
+        <v>7</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24">
+        <v>7</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="23">
         <v>44237</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24">
         <v>2</v>
       </c>
-      <c r="E23" s="6">
-        <f t="shared" si="1"/>
+      <c r="E26" s="25">
+        <f>SUM(F26:R26)</f>
         <v>2</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2">
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24">
         <v>2</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+    </row>
+    <row r="27" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="23">
+        <v>44237</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24">
+        <v>2</v>
+      </c>
+      <c r="E27" s="25">
+        <f>SUM(F27:R27)</f>
+        <v>2</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24">
+        <v>2</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3013,7 +3004,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3034,7 +3025,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3055,7 +3046,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3076,7 +3067,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3097,7 +3088,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3118,7 +3109,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3139,7 +3130,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3160,7 +3151,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3181,7 +3172,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3202,7 +3193,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3223,7 +3214,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3244,7 +3235,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3265,7 +3256,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3286,7 +3277,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3307,7 +3298,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3328,7 +3319,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3349,7 +3340,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3370,7 +3361,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3391,7 +3382,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3412,7 +3403,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -3433,7 +3424,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3454,7 +3445,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3475,7 +3466,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3496,7 +3487,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3517,7 +3508,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3538,7 +3529,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3559,7 +3550,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3580,7 +3571,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3601,7 +3592,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3622,7 +3613,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3643,7 +3634,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3664,7 +3655,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3685,7 +3676,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3706,7 +3697,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3727,12 +3718,12 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E63:E81" si="2">SUM(F63:R63)</f>
         <v>0</v>
       </c>
       <c r="F63" s="2"/>
@@ -3748,12 +3739,12 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F64" s="2"/>
@@ -3769,12 +3760,12 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F65" s="2"/>
@@ -3790,12 +3781,12 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="6">
-        <f t="shared" ref="E66:E84" si="2">SUM(F66:R66)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F66" s="2"/>
@@ -3811,7 +3802,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3832,7 +3823,7 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3853,7 +3844,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3874,7 +3865,7 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3895,7 +3886,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3916,7 +3907,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3937,7 +3928,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3958,7 +3949,7 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3979,107 +3970,44 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B75" s="1"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E75" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B76" s="1"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E76" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B77" s="1"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E77" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E78" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E79" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E80" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E82" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E83" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E84" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4100,7 +4028,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4115,9 +4043,9 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -4127,7 +4055,7 @@
       <c r="E2" s="26"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -4135,7 +4063,7 @@
       <c r="E3" s="26"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -4143,7 +4071,7 @@
       <c r="E4" s="26"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -4151,11 +4079,11 @@
       <c r="E5" s="26"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F6" s="17"/>
       <c r="R6" s="13"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
@@ -4173,66 +4101,66 @@
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <f>EffortRawData!F$6</f>
         <v>44230</v>
       </c>
       <c r="B8" s="9">
         <f>EffortRawData!D5</f>
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C8" s="9">
         <f>B8</f>
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D8" s="9">
         <f>EffortRawData!D5</f>
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <f>EffortRawData!G$6</f>
         <v>44237</v>
       </c>
       <c r="B9" s="9">
         <f>EffortRawData!F5</f>
-        <v>121.5</v>
+        <v>94.5</v>
       </c>
       <c r="C9" s="9">
         <f>C8-(C$8/$E$19)</f>
-        <v>116.41666666666667</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ref="D9:D10" si="0">IF($B9=$B8,MAX(0,$D8-($B$8-$D8)/$E8),$B9)</f>
-        <v>121.5</v>
+        <v>94.5</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <f>EffortRawData!H$6</f>
         <v>44244</v>
       </c>
       <c r="B10" s="9">
         <f>EffortRawData!G5</f>
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" ref="C10:C20" si="1">C9-(C$8/$E$19)</f>
-        <v>105.83333333333334</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
@@ -4240,22 +4168,22 @@
       <c r="F10" s="18"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <f>EffortRawData!I$6</f>
         <v>44251</v>
       </c>
       <c r="B11" s="9">
         <f>EffortRawData!H5</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="1"/>
-        <v>95.250000000000014</v>
+        <v>75.000000000000014</v>
       </c>
       <c r="D11" s="9">
         <f>IF($B11=$B10,MAX(0,$D10-($B$8-$D10)/$E10),$B11)</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
@@ -4263,190 +4191,190 @@
       <c r="F11" s="19"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <f>EffortRawData!J$6</f>
         <v>44258</v>
       </c>
       <c r="B12" s="9">
         <f>EffortRawData!I5</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="1"/>
-        <v>84.666666666666686</v>
+        <v>66.666666666666686</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ref="D12:D20" si="2">IF($B12=$B11,MAX(0,$D11-($B$8-$D11)/$E11),$B12)</f>
-        <v>99.5</v>
+        <v>66.25</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <f>EffortRawData!K$6</f>
         <v>44265</v>
       </c>
       <c r="B13" s="9">
         <f>EffortRawData!J5</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="1"/>
-        <v>74.083333333333357</v>
+        <v>58.33333333333335</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>59.5</v>
       </c>
       <c r="E13" s="2">
         <v>6</v>
       </c>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <f>EffortRawData!L$6</f>
         <v>44272</v>
       </c>
       <c r="B14" s="9">
         <f>EffortRawData!K5</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="1"/>
-        <v>63.500000000000021</v>
+        <v>50.000000000000014</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="2"/>
-        <v>88.5</v>
+        <v>52.75</v>
       </c>
       <c r="E14" s="2">
         <v>7</v>
       </c>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <f>EffortRawData!M$6</f>
         <v>44279</v>
       </c>
       <c r="B15" s="9">
         <f>EffortRawData!L5</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="1"/>
-        <v>52.916666666666686</v>
+        <v>41.666666666666679</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
         <v>8</v>
       </c>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <f>EffortRawData!N$6</f>
         <v>44286</v>
       </c>
       <c r="B16" s="9">
         <f>EffortRawData!M5</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" si="1"/>
-        <v>42.33333333333335</v>
+        <v>33.333333333333343</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="2"/>
-        <v>77.5</v>
+        <v>39.25</v>
       </c>
       <c r="E16" s="2">
         <v>9</v>
       </c>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <f>EffortRawData!O$6</f>
         <v>44293</v>
       </c>
       <c r="B17" s="9">
         <f>EffortRawData!N5</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="1"/>
-        <v>31.750000000000014</v>
+        <v>25.000000000000007</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>32.5</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <f>EffortRawData!P$6</f>
         <v>44300</v>
       </c>
       <c r="B18" s="9">
         <f>EffortRawData!O5</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C18" s="9">
         <f t="shared" si="1"/>
-        <v>21.166666666666679</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="2"/>
-        <v>66.5</v>
+        <v>25.75</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <f>EffortRawData!Q$6</f>
         <v>44307</v>
       </c>
       <c r="B19" s="9">
         <f>EffortRawData!P5</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="1"/>
-        <v>10.583333333333345</v>
+        <v>8.3333333333333375</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2">
         <v>12</v>
       </c>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <f>EffortRawData!R$6</f>
         <v>44314</v>
       </c>
       <c r="B20" s="9">
         <f>EffortRawData!Q5</f>
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C20" s="9">
         <f t="shared" si="1"/>
@@ -4454,17 +4382,17 @@
       </c>
       <c r="D20" s="9">
         <f t="shared" si="2"/>
-        <v>55.5</v>
+        <v>12.25</v>
       </c>
       <c r="E20" s="2">
         <v>13</v>
       </c>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -4472,7 +4400,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>

--- a/content/burndown.xlsx
+++ b/content/burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\AppStateCapstone\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C387D8F-85E6-4BA0-A865-B90D0BFDF34D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53D531D-B228-4B1E-B3CE-71ADB472C1B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8730" yWindow="2355" windowWidth="29220" windowHeight="17640" xr2:uid="{58AE2564-334E-0F42-91A8-57075DA461D6}"/>
+    <workbookView xWindow="1050" yWindow="630" windowWidth="34215" windowHeight="19125" xr2:uid="{58AE2564-334E-0F42-91A8-57075DA461D6}"/>
   </bookViews>
   <sheets>
     <sheet name="EffortRawData" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{F54DA456-B0A3-C34F-B4EB-10A01303D66C}">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{F54DA456-B0A3-C34F-B4EB-10A01303D66C}">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{808B3ECB-8534-8340-B4A5-7738962116A3}">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{808B3ECB-8534-8340-B4A5-7738962116A3}">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{F65F7D0D-B627-2142-AF9F-B9EAB8D18538}">
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{F65F7D0D-B627-2142-AF9F-B9EAB8D18538}">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{F8C402E0-4F70-FC48-80B3-01096083B0CC}">
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{F8C402E0-4F70-FC48-80B3-01096083B0CC}">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{1A1B4E01-05C7-BC4E-AA18-AAB726C802E1}">
+    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{1A1B4E01-05C7-BC4E-AA18-AAB726C802E1}">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{87FE40A0-93E0-8749-A5E3-6AAA55399195}">
+    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{87FE40A0-93E0-8749-A5E3-6AAA55399195}">
       <text>
         <r>
           <rPr>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Project Name:</t>
   </si>
@@ -342,12 +342,6 @@
     <t>Jonah Ross</t>
   </si>
   <si>
-    <t>Setup Site Ground</t>
-  </si>
-  <si>
-    <t>Create Base Page</t>
-  </si>
-  <si>
     <t>User Card Display Page Fuctionality</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     <t>Home Page Fuctionality</t>
   </si>
   <si>
-    <t>Create Login Page (Full)</t>
-  </si>
-  <si>
     <t>User Deck List Page Fuctionality</t>
   </si>
   <si>
@@ -423,10 +414,25 @@
     <t>Setup MySQL db instance</t>
   </si>
   <si>
-    <t>Create Login Page (django)</t>
-  </si>
-  <si>
     <t>Learn django</t>
+  </si>
+  <si>
+    <t>Setup Site Ground (SSG)</t>
+  </si>
+  <si>
+    <t>Create Base Page  (SSG)</t>
+  </si>
+  <si>
+    <t>Create Login Page (Full)  (SSG)</t>
+  </si>
+  <si>
+    <t>Create Login Page</t>
+  </si>
+  <si>
+    <t>Create Registration Page</t>
+  </si>
+  <si>
+    <t>Create base page</t>
   </si>
 </sst>
 </file>
@@ -564,40 +570,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -606,14 +589,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -795,43 +825,43 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.5</c:v>
+                  <c:v>100.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.25</c:v>
+                  <c:v>54.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.5</c:v>
+                  <c:v>44.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.75</c:v>
+                  <c:v>34.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.25</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,43 +954,43 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.5</c:v>
+                  <c:v>100.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,40 +1083,40 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.666666666666671</c:v>
+                  <c:v>97.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.333333333333343</c:v>
+                  <c:v>88.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.000000000000014</c:v>
+                  <c:v>79.500000000000014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.666666666666686</c:v>
+                  <c:v>70.666666666666686</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.33333333333335</c:v>
+                  <c:v>61.83333333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.000000000000014</c:v>
+                  <c:v>53.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.666666666666679</c:v>
+                  <c:v>44.166666666666679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.333333333333343</c:v>
+                  <c:v>35.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.000000000000007</c:v>
+                  <c:v>26.500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.666666666666671</c:v>
+                  <c:v>17.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3333333333333375</c:v>
+                  <c:v>8.8333333333333375</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2199,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE15858-1152-CB4E-BE11-BC0471701F8D}">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2215,1802 +2245,2186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="16" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="16" t="s">
         <v>20</v>
       </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F3" s="3" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="25">
+        <v>44244</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12">
+        <f>COUNTA(A7:A83)</f>
+        <v>20</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12">
+        <f>SUM(D7:D83)</f>
+        <v>106</v>
+      </c>
+      <c r="E5" s="14">
+        <f>SUM(E7:E83)</f>
+        <v>41</v>
+      </c>
+      <c r="F5" s="12">
+        <f>D5-SUM(F7:F83)</f>
+        <v>100.5</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" ref="G5:R5" si="0">F5-SUM(G7:G83)</f>
+        <v>87</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="P5" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="R5" s="12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="15">
+        <v>44230</v>
+      </c>
+      <c r="G6" s="15">
         <v>44237</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="10">
-        <f>COUNTA(A7:A81)</f>
-        <v>18</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10">
-        <f>SUM(D7:D81)</f>
-        <v>100</v>
-      </c>
-      <c r="E5" s="11">
-        <f>SUM(E7:E81)</f>
+      <c r="H6" s="15">
+        <v>44244</v>
+      </c>
+      <c r="I6" s="15">
+        <v>44251</v>
+      </c>
+      <c r="J6" s="15">
+        <v>44258</v>
+      </c>
+      <c r="K6" s="15">
+        <v>44265</v>
+      </c>
+      <c r="L6" s="15">
+        <v>44272</v>
+      </c>
+      <c r="M6" s="15">
+        <v>44279</v>
+      </c>
+      <c r="N6" s="15">
+        <v>44286</v>
+      </c>
+      <c r="O6" s="15">
+        <v>44293</v>
+      </c>
+      <c r="P6" s="15">
+        <v>44300</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>44307</v>
+      </c>
+      <c r="R6" s="28">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="28">
+        <v>44238</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16">
+        <v>15</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" ref="E7:E13" si="1">SUM(F7:R7)</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18">
+        <v>6</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="28">
+        <v>44238</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16">
+        <v>2</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="28">
+        <v>44238</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18">
+        <v>2</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="28">
+        <v>44238</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16">
+        <v>4</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18">
+        <v>4</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="28">
+        <v>44239</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18">
+        <v>2</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="28">
+        <v>44239</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16">
+        <v>5</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18">
+        <v>2</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="10">
-        <f>D5-SUM(F7:F81)</f>
-        <v>94.5</v>
-      </c>
-      <c r="G5" s="10">
-        <f>F5-SUM(G7:G81)</f>
-        <v>81</v>
-      </c>
-      <c r="H5" s="10">
-        <f>G5-SUM(H7:H81)</f>
-        <v>73</v>
-      </c>
-      <c r="I5" s="10">
-        <f>H5-SUM(I7:I81)</f>
-        <v>73</v>
-      </c>
-      <c r="J5" s="10">
-        <f>I5-SUM(J7:J81)</f>
-        <v>73</v>
-      </c>
-      <c r="K5" s="10">
-        <f>J5-SUM(K7:K81)</f>
-        <v>73</v>
-      </c>
-      <c r="L5" s="10">
-        <f>K5-SUM(L7:L81)</f>
-        <v>73</v>
-      </c>
-      <c r="M5" s="10">
-        <f>L5-SUM(M7:M81)</f>
-        <v>73</v>
-      </c>
-      <c r="N5" s="10">
-        <f>M5-SUM(N7:N81)</f>
-        <v>73</v>
-      </c>
-      <c r="O5" s="10">
-        <f>N5-SUM(O7:O81)</f>
-        <v>73</v>
-      </c>
-      <c r="P5" s="10">
-        <f>O5-SUM(P7:P81)</f>
-        <v>73</v>
-      </c>
-      <c r="Q5" s="10">
-        <f>P5-SUM(Q7:Q81)</f>
-        <v>73</v>
-      </c>
-      <c r="R5" s="10">
-        <f>Q5-SUM(R7:R81)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B14" s="28">
+        <v>44233</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="16">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" ref="E14:E16" si="2">SUM(F14:R14)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="28">
+        <v>44233</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="28">
+        <v>44233</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="16">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="28">
+        <v>44233</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="16">
+        <v>3</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" ref="E17:E64" si="3">SUM(F17:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="28">
+        <v>44233</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="16">
+        <v>10</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="28">
+        <v>44233</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="16">
+        <v>10</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="28">
+        <v>44233</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E20" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="28">
+        <v>44233</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="16">
+        <v>10</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="28">
+        <v>44237</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="29">
+        <v>44233</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2</v>
+      </c>
+      <c r="E25" s="20">
+        <f>SUM(F25:R25)</f>
+        <v>2</v>
+      </c>
+      <c r="F25" s="21">
+        <v>2</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+    </row>
+    <row r="26" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="29">
+        <v>44233</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="19">
+        <v>4</v>
+      </c>
+      <c r="E26" s="20">
+        <f>SUM(F26:R26)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F26" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+    </row>
+    <row r="27" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="29">
+        <v>44233</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="19">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>44230</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="E27" s="20">
+        <f>SUM(F27:R27)</f>
+        <v>7</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21">
+        <v>7</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+    </row>
+    <row r="28" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="29">
         <v>44237</v>
       </c>
-      <c r="H6" s="5">
-        <v>44244</v>
-      </c>
-      <c r="I6" s="5">
-        <v>44251</v>
-      </c>
-      <c r="J6" s="5">
-        <v>44258</v>
-      </c>
-      <c r="K6" s="5">
-        <v>44265</v>
-      </c>
-      <c r="L6" s="5">
-        <v>44272</v>
-      </c>
-      <c r="M6" s="5">
-        <v>44279</v>
-      </c>
-      <c r="N6" s="5">
-        <v>44286</v>
-      </c>
-      <c r="O6" s="5">
-        <v>44293</v>
-      </c>
-      <c r="P6" s="5">
-        <v>44300</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>44307</v>
-      </c>
-      <c r="R6" s="1">
-        <v>44314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44238</v>
-      </c>
-      <c r="D7" s="2">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6">
-        <f>SUM(F7:R7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44238</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
-        <f>SUM(F8:R8)</f>
+      <c r="E28" s="20">
+        <f>SUM(F28:R28)</f>
         <v>2</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>2</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44238</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+    </row>
+    <row r="29" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="29">
+        <v>44237</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
-        <f>SUM(F9:R9)</f>
+      <c r="E29" s="20">
+        <f>SUM(F29:R29)</f>
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21">
         <v>2</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44238</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6">
-        <f>SUM(F10:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6">
-        <f>SUM(F11:R11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" ref="E12:E14" si="0">SUM(F12:R12)</f>
-        <v>6.5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2">
-        <v>9</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" ref="E15:E62" si="1">SUM(F15:R15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44233</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44237</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="23">
-        <v>44233</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="24">
-        <v>2</v>
-      </c>
-      <c r="E23" s="25">
-        <f>SUM(F23:R23)</f>
-        <v>2</v>
-      </c>
-      <c r="F23" s="24">
-        <v>2</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-    </row>
-    <row r="24" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="23">
-        <v>44233</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="24">
-        <v>4</v>
-      </c>
-      <c r="E24" s="25">
-        <f>SUM(F24:R24)</f>
-        <v>2.5</v>
-      </c>
-      <c r="F24" s="24">
-        <v>2.5</v>
-      </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-    </row>
-    <row r="25" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="23">
-        <v>44233</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="24">
-        <v>7</v>
-      </c>
-      <c r="E25" s="25">
-        <f>SUM(F25:R25)</f>
-        <v>7</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24">
-        <v>7</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-    </row>
-    <row r="26" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="23">
-        <v>44237</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24">
-        <v>2</v>
-      </c>
-      <c r="E26" s="25">
-        <f>SUM(F26:R26)</f>
-        <v>2</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24">
-        <v>2</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-    </row>
-    <row r="27" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="23">
-        <v>44237</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24">
-        <v>2</v>
-      </c>
-      <c r="E27" s="25">
-        <f>SUM(F27:R27)</f>
-        <v>2</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24">
-        <v>2</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="6">
-        <f t="shared" ref="E63:E81" si="2">SUM(F63:R63)</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E75" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E76" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E77" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E78" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E79" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E80" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17">
+        <f t="shared" ref="E65:E83" si="4">SUM(F65:R65)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -4046,367 +4460,367 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="17"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F6" s="17"/>
-      <c r="R6" s="13"/>
+      <c r="F6" s="6"/>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="5">
         <f>EffortRawData!F$6</f>
         <v>44230</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="3">
         <f>EffortRawData!D5</f>
-        <v>100</v>
-      </c>
-      <c r="C8" s="9">
+        <v>106</v>
+      </c>
+      <c r="C8" s="3">
         <f>B8</f>
-        <v>100</v>
-      </c>
-      <c r="D8" s="9">
+        <v>106</v>
+      </c>
+      <c r="D8" s="3">
         <f>EffortRawData!D5</f>
-        <v>100</v>
-      </c>
-      <c r="E8" s="2">
+        <v>106</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="5">
         <f>EffortRawData!G$6</f>
         <v>44237</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="3">
         <f>EffortRawData!F5</f>
-        <v>94.5</v>
-      </c>
-      <c r="C9" s="9">
+        <v>100.5</v>
+      </c>
+      <c r="C9" s="3">
         <f>C8-(C$8/$E$19)</f>
-        <v>91.666666666666671</v>
-      </c>
-      <c r="D9" s="9">
+        <v>97.166666666666671</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" ref="D9:D10" si="0">IF($B9=$B8,MAX(0,$D8-($B$8-$D8)/$E8),$B9)</f>
-        <v>94.5</v>
-      </c>
-      <c r="E9" s="2">
+        <v>100.5</v>
+      </c>
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="5">
         <f>EffortRawData!H$6</f>
         <v>44244</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="3">
         <f>EffortRawData!G5</f>
-        <v>81</v>
-      </c>
-      <c r="C10" s="9">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3">
         <f t="shared" ref="C10:C20" si="1">C9-(C$8/$E$19)</f>
-        <v>83.333333333333343</v>
-      </c>
-      <c r="D10" s="9">
+        <v>88.333333333333343</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="E10" s="2">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="5">
         <f>EffortRawData!I$6</f>
         <v>44251</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="3">
         <f>EffortRawData!H5</f>
-        <v>73</v>
-      </c>
-      <c r="C11" s="9">
+        <v>65</v>
+      </c>
+      <c r="C11" s="3">
         <f t="shared" si="1"/>
-        <v>75.000000000000014</v>
-      </c>
-      <c r="D11" s="9">
+        <v>79.500000000000014</v>
+      </c>
+      <c r="D11" s="3">
         <f>IF($B11=$B10,MAX(0,$D10-($B$8-$D10)/$E10),$B11)</f>
-        <v>73</v>
-      </c>
-      <c r="E11" s="2">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="5">
         <f>EffortRawData!J$6</f>
         <v>44258</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="3">
         <f>EffortRawData!I5</f>
-        <v>73</v>
-      </c>
-      <c r="C12" s="9">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3">
         <f t="shared" si="1"/>
-        <v>66.666666666666686</v>
-      </c>
-      <c r="D12" s="9">
+        <v>70.666666666666686</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" ref="D12:D20" si="2">IF($B12=$B11,MAX(0,$D11-($B$8-$D11)/$E11),$B12)</f>
-        <v>66.25</v>
-      </c>
-      <c r="E12" s="2">
+        <v>54.75</v>
+      </c>
+      <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="5">
         <f>EffortRawData!K$6</f>
         <v>44265</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="3">
         <f>EffortRawData!J5</f>
-        <v>73</v>
-      </c>
-      <c r="C13" s="9">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3">
         <f t="shared" si="1"/>
-        <v>58.33333333333335</v>
-      </c>
-      <c r="D13" s="9">
+        <v>61.83333333333335</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="2"/>
-        <v>59.5</v>
-      </c>
-      <c r="E13" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="5">
         <f>EffortRawData!L$6</f>
         <v>44272</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="3">
         <f>EffortRawData!K5</f>
-        <v>73</v>
-      </c>
-      <c r="C14" s="9">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3">
         <f t="shared" si="1"/>
-        <v>50.000000000000014</v>
-      </c>
-      <c r="D14" s="9">
+        <v>53.000000000000014</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="2"/>
-        <v>52.75</v>
-      </c>
-      <c r="E14" s="2">
+        <v>34.25</v>
+      </c>
+      <c r="E14" s="1">
         <v>7</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="5">
         <f>EffortRawData!M$6</f>
         <v>44279</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="3">
         <f>EffortRawData!L5</f>
-        <v>73</v>
-      </c>
-      <c r="C15" s="9">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3">
         <f t="shared" si="1"/>
-        <v>41.666666666666679</v>
-      </c>
-      <c r="D15" s="9">
+        <v>44.166666666666679</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="E15" s="2">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="5">
         <f>EffortRawData!N$6</f>
         <v>44286</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="3">
         <f>EffortRawData!M5</f>
-        <v>73</v>
-      </c>
-      <c r="C16" s="9">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
-        <v>33.333333333333343</v>
-      </c>
-      <c r="D16" s="9">
+        <v>35.333333333333343</v>
+      </c>
+      <c r="D16" s="3">
         <f t="shared" si="2"/>
-        <v>39.25</v>
-      </c>
-      <c r="E16" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="5">
         <f>EffortRawData!O$6</f>
         <v>44293</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="3">
         <f>EffortRawData!N5</f>
-        <v>73</v>
-      </c>
-      <c r="C17" s="9">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3">
         <f t="shared" si="1"/>
-        <v>25.000000000000007</v>
-      </c>
-      <c r="D17" s="9">
+        <v>26.500000000000007</v>
+      </c>
+      <c r="D17" s="3">
         <f t="shared" si="2"/>
-        <v>32.5</v>
-      </c>
-      <c r="E17" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="5">
         <f>EffortRawData!P$6</f>
         <v>44300</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="3">
         <f>EffortRawData!O5</f>
-        <v>73</v>
-      </c>
-      <c r="C18" s="9">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3">
         <f t="shared" si="1"/>
-        <v>16.666666666666671</v>
-      </c>
-      <c r="D18" s="9">
+        <v>17.666666666666671</v>
+      </c>
+      <c r="D18" s="3">
         <f t="shared" si="2"/>
-        <v>25.75</v>
-      </c>
-      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>11</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="5">
         <f>EffortRawData!Q$6</f>
         <v>44307</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="3">
         <f>EffortRawData!P5</f>
-        <v>73</v>
-      </c>
-      <c r="C19" s="9">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3">
         <f t="shared" si="1"/>
-        <v>8.3333333333333375</v>
-      </c>
-      <c r="D19" s="9">
+        <v>8.8333333333333375</v>
+      </c>
+      <c r="D19" s="3">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <v>12</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="5">
         <f>EffortRawData!R$6</f>
         <v>44314</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="3">
         <f>EffortRawData!Q5</f>
-        <v>73</v>
-      </c>
-      <c r="C20" s="9">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="3">
         <f t="shared" si="2"/>
-        <v>12.25</v>
-      </c>
-      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>13</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="17"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
